--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\personalFolder\Usman\nftmlm - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE670B2-55C4-4646-97FF-9DC44BBEC6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43DEDE3-58DE-41CA-9973-61F9297AE0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70684EE9-6D1E-4A9F-B089-63FA2506ADAA}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
